--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3899.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3899.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.75134059024179</v>
+        <v>1.349091053009033</v>
       </c>
       <c r="B1">
-        <v>1.90073352232684</v>
+        <v>2.500438213348389</v>
       </c>
       <c r="C1">
-        <v>2.209949980423962</v>
+        <v>4.272638320922852</v>
       </c>
       <c r="D1">
-        <v>3.657043507658774</v>
+        <v>4.333022117614746</v>
       </c>
       <c r="E1">
-        <v>4.576297452984146</v>
+        <v>1.624800086021423</v>
       </c>
     </row>
   </sheetData>
